--- a/scalpel/typeinfer/evaluation/evaluation_outputs/faif__python-patterns.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/faif__python-patterns.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F326"/>
+  <dimension ref="A1:F327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6943,9 +6943,9 @@
           <t>{'any', 'bool'}</t>
         </is>
       </c>
-      <c r="F203" s="4" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F203" s="5" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -7068,12 +7068,12 @@
       </c>
       <c r="E207" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'bool', 'NoneType'}</t>
-        </is>
-      </c>
-      <c r="F207" s="4" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>{'any', 'NoneType', 'bool'}</t>
+        </is>
+      </c>
+      <c r="F207" s="5" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -10844,21 +10844,35 @@
         </is>
       </c>
       <c r="F325" s="2" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="inlineStr"/>
       <c r="B326" s="2" t="inlineStr"/>
-      <c r="C326" s="2" t="inlineStr"/>
-      <c r="D326" s="2" t="inlineStr"/>
-      <c r="E326" s="2" t="inlineStr">
+      <c r="C326" s="2" t="inlineStr">
+        <is>
+          <t>Scalpel Accuracy:</t>
+        </is>
+      </c>
+      <c r="D326" s="2" t="n">
+        <v>572.92</v>
+      </c>
+      <c r="E326" s="2" t="inlineStr"/>
+      <c r="F326" s="2" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="inlineStr"/>
+      <c r="B327" s="2" t="inlineStr"/>
+      <c r="C327" s="2" t="inlineStr"/>
+      <c r="D327" s="2" t="inlineStr"/>
+      <c r="E327" s="2" t="inlineStr">
         <is>
           <t>Accuracy over PyType</t>
         </is>
       </c>
-      <c r="F326" s="2" t="n">
-        <v>81.25</v>
+      <c r="F327" s="2" t="n">
+        <v>85.42</v>
       </c>
     </row>
   </sheetData>

--- a/scalpel/typeinfer/evaluation/evaluation_outputs/faif__python-patterns.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/faif__python-patterns.xlsx
@@ -6940,7 +6940,7 @@
       </c>
       <c r="E203" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'bool'}</t>
+          <t>{'bool', 'any'}</t>
         </is>
       </c>
       <c r="F203" s="5" t="inlineStr">
@@ -6972,12 +6972,12 @@
       </c>
       <c r="E204" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F204" s="4" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>bool</t>
+        </is>
+      </c>
+      <c r="F204" s="5" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -7068,7 +7068,7 @@
       </c>
       <c r="E207" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'NoneType', 'bool'}</t>
+          <t>{'bool', 'NoneType', 'any'}</t>
         </is>
       </c>
       <c r="F207" s="5" t="inlineStr">
@@ -7100,12 +7100,12 @@
       </c>
       <c r="E208" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F208" s="4" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>bool</t>
+        </is>
+      </c>
+      <c r="F208" s="5" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -10844,22 +10844,22 @@
         </is>
       </c>
       <c r="F325" s="2" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="inlineStr"/>
       <c r="B326" s="2" t="inlineStr"/>
-      <c r="C326" s="2" t="inlineStr">
+      <c r="C326" s="2" t="inlineStr"/>
+      <c r="D326" s="2" t="inlineStr"/>
+      <c r="E326" s="2" t="inlineStr">
         <is>
           <t>Scalpel Accuracy:</t>
         </is>
       </c>
-      <c r="D326" s="2" t="n">
-        <v>572.92</v>
-      </c>
-      <c r="E326" s="2" t="inlineStr"/>
-      <c r="F326" s="2" t="inlineStr"/>
+      <c r="F326" s="2" t="n">
+        <v>85.14</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="inlineStr"/>
@@ -10868,11 +10868,11 @@
       <c r="D327" s="2" t="inlineStr"/>
       <c r="E327" s="2" t="inlineStr">
         <is>
-          <t>Accuracy over PyType</t>
+          <t>Accuracy vs PyType</t>
         </is>
       </c>
       <c r="F327" s="2" t="n">
-        <v>85.42</v>
+        <v>89.58</v>
       </c>
     </row>
   </sheetData>
